--- a/test_coding/test_api/api_test_cases/mysteel_api_cases.xlsx
+++ b/test_coding/test_api/api_test_cases/mysteel_api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14600"/>
+    <workbookView windowWidth="23040" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="564">
   <si>
     <t>interface_name</t>
   </si>
@@ -376,7 +376,7 @@
     <t>/v4/yellow/city/list.htm</t>
   </si>
   <si>
-    <t xml:space="preserve"> 悬赏问答列表</t>
+    <t>悬赏问答列表</t>
   </si>
   <si>
     <t>https://m.mysteel.com</t>
@@ -769,6 +769,9 @@
     <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','attach':'0|||050603-热轧-300-010103;050602-中板-300-010102|||12|||19100000000','billId':'添加发票信息_0','coupon':'0','payFee':'60000','totalFee':'60000','payType':'0','score':'0','deviceInfo':'19100000000','addressId':'','protocolVersion':'4.7.4'}</t>
   </si>
   <si>
+    <t>"outTradeNO":"</t>
+  </si>
+  <si>
     <t>添加发票信息_0,</t>
   </si>
   <si>
@@ -856,6 +859,18 @@
     <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','name':''}</t>
   </si>
   <si>
+    <t>修改联系人</t>
+  </si>
+  <si>
+    <t>/v4/linkman/update.htm?userId=1043659&amp;id=4233&amp;name=%E8%B5%B5%E4%BC%9F%E6%98%8E&amp;userPhone=18196535023&amp;memberName=&amp;note=&amp;machineCode=980569354954f05e16edb99971b262d0&amp;isPad=</t>
+  </si>
+  <si>
+    <t>根据ID查询联系人信息</t>
+  </si>
+  <si>
+    <t>/v4/linkman/detail.htm?id=4145&amp;userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
     <t>退出登录</t>
   </si>
   <si>
@@ -904,6 +919,9 @@
     <t>{'userId':'','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','ostype':'1','operator':'','screenSize':'1080x1920','machineInfo':'Xiaomi,RedmiNote4,23','userPhonePatchVersion':'0','ip':'192.168.2.150','cId':'effaf022dab9265958391b3ce68f2e90','token':'','marketType':'Mysteel','softVersion':'4.8.8','network':'WIFI','unionId':'o2p05uLeq-y8uZYN7XUjP26YHWCA'}</t>
   </si>
   <si>
+    <t>"loginToken":","frushToken":",</t>
+  </si>
+  <si>
     <t>/v4/subBreedInfo/batchCreate.htm</t>
   </si>
   <si>
@@ -976,12 +994,6 @@
     <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','page':'1','objectId':'30997315','objectType':'3','protocolVersion':'4.4.0'}</t>
   </si>
   <si>
-    <t>/v4/message/feed/create.htm</t>
-  </si>
-  <si>
-    <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','contentType':'1','objectId':'30997315','phone':'19100000000','classify':'3','content':'测试，请忽略','objectType':'2','channelId':'14846','protocolVersion':'4.3.0'}</t>
-  </si>
-  <si>
     <t>行情定制列表</t>
   </si>
   <si>
@@ -1111,63 +1123,6 @@
     <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','province':'','search':'','supplyType':'3','city':'','page':'1','breedId':''}</t>
   </si>
   <si>
-    <t>供应详细页</t>
-  </si>
-  <si>
-    <t>{'Content-Type':'application/x-www-form-urlencoded;charset=UTF-8','loginToken':'微信登录_0','t':'current_time','mc':'980569354954f05e16edb99971b262d0','n':'eff1426074814a6ea0c6e721a37e093e'}</t>
-  </si>
-  <si>
-    <t>/v4/gq/detail.htm</t>
-  </si>
-  <si>
-    <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','id':'登录后供应列表页_0','protocolVersion':'4.8.0'}</t>
-  </si>
-  <si>
-    <t>"objectName":","memberId":","gqCreateId":","linkMan":","linkPhone":","source":",</t>
-  </si>
-  <si>
-    <t>登录后供应列表页_0,</t>
-  </si>
-  <si>
-    <t>微信登录_0,current_time,</t>
-  </si>
-  <si>
-    <t>供应收藏</t>
-  </si>
-  <si>
-    <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','objectTitle':'供应详细页_0','objectId':'登录后供应列表页_0','breedId':'','objectType':'5'}</t>
-  </si>
-  <si>
-    <t>供应详细页_0,登录后供应列表页_0</t>
-  </si>
-  <si>
-    <t>收藏供应联系人</t>
-  </si>
-  <si>
-    <t>/v4/linkman/create.htm</t>
-  </si>
-  <si>
-    <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','memberName':'','source':'供应详细页_5','memberId':'供应详细页_1','targetUserId':'供应详细页_2','name':'供应详细页_3','note':'','userPhone':'供应详细页_4'}</t>
-  </si>
-  <si>
-    <t>供应详细页_5,供应详细页_1,供应详细页_2,供应详细页_3,供应详细页_4,</t>
-  </si>
-  <si>
-    <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','id':'登录后供应列表页_0'}</t>
-  </si>
-  <si>
-    <t>供应-查看更多</t>
-  </si>
-  <si>
-    <t>/v4/gq/mainPage.htm</t>
-  </si>
-  <si>
-    <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','source':'供应详细页_5','memberId':'供应详细页_1','page':'1','gqCreateId':'供应详细页_2','protocolVersion':'4.8.0'}</t>
-  </si>
-  <si>
-    <t>供应详细页_5,供应详细页_1,供应详细页_2,</t>
-  </si>
-  <si>
     <t>发布求购-选择品种历史</t>
   </si>
   <si>
@@ -1198,18 +1153,6 @@
     <t>/v4/gq/queryMy.htm</t>
   </si>
   <si>
-    <t>我的供求-待审核-删除</t>
-  </si>
-  <si>
-    <t>/v4/gq/delete.htm</t>
-  </si>
-  <si>
-    <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','id':'我的供求-待审核_0'}</t>
-  </si>
-  <si>
-    <t>我的供求-待审核_0,</t>
-  </si>
-  <si>
     <t>我的供求-收藏</t>
   </si>
   <si>
@@ -1231,24 +1174,6 @@
     <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','attrId':'2497'}</t>
   </si>
   <si>
-    <t>发布供应</t>
-  </si>
-  <si>
-    <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','breedAttr':'2496-规格-sSpecification-热镀;2497-产地/牌号-sFactory-甘肃','breedName':'锌合金','gqImgUrl':'','detailInfo':'测试，请忽略','province':'西藏','supplyType':'1','prodNum':'366','id':'0','city':'拉萨','unit':'元/吨','price':'258','breedId':'848'}</t>
-  </si>
-  <si>
-    <t>我的供求-待审核2</t>
-  </si>
-  <si>
-    <t>我的供求-待审核2-删除</t>
-  </si>
-  <si>
-    <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','id':'我的供求-待审核2_0'}</t>
-  </si>
-  <si>
-    <t>我的供求-待审核2_0,</t>
-  </si>
-  <si>
     <t>报告-文章发送至邮箱</t>
   </si>
   <si>
@@ -1264,12 +1189,6 @@
     <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','attach':'1|||1155329-Mysteel：铁合金（硅锰）供需、周开工率、日产数据统计（2019.11.15）-1||||||','billId':'','coupon':'0','payFee':'100','totalFee':'100','payType':'0','score':'0','deviceInfo':'19100000000','addressId':'','protocolVersion':'4.7.4'}</t>
   </si>
   <si>
-    <t>/v4/comment/reply/create.htm</t>
-  </si>
-  <si>
-    <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','objectTitle':'Mysteel：铁合金（硅锰）供需、周开工率、日产数据统计（2019.11.15）','topicId':'0','replyIds':'','objectId':'1155329','objectCreateTime':'','content':'测试，请忽略','objectType':'1','objectCreateId':'','channlId':'0203','protocolVersion':'4.4.0'}</t>
-  </si>
-  <si>
     <t>文章收藏</t>
   </si>
   <si>
@@ -1307,6 +1226,486 @@
   </si>
   <si>
     <t>{'userId':'1042955','machineCode':'980569354954f05e16edb99971b262d0','isPad':'','tableId':'15419'}</t>
+  </si>
+  <si>
+    <t>直播头部频道</t>
+  </si>
+  <si>
+    <t>/v4/channel/zhibo.htm</t>
+  </si>
+  <si>
+    <t>资讯频道</t>
+  </si>
+  <si>
+    <t>根据品种id获取相应频道</t>
+  </si>
+  <si>
+    <t>/v4/channel/getByBreed.htm?breedId=0703</t>
+  </si>
+  <si>
+    <t>根据品种中资讯的频道id获取相应子频道</t>
+  </si>
+  <si>
+    <t>/v4/channel/getSon.htm?channelId=06040502</t>
+  </si>
+  <si>
+    <t>获取期货栏目</t>
+  </si>
+  <si>
+    <t>获取频道文章</t>
+  </si>
+  <si>
+    <t>/v4/article/list.htm?userId=&amp;channelId=060811&amp;page=1&amp;size=</t>
+  </si>
+  <si>
+    <t>搜索频道文章</t>
+  </si>
+  <si>
+    <t>/v4/article/search.htm?userId=&amp;title=铁矿石&amp;channelId=&amp;page=1&amp;size=15</t>
+  </si>
+  <si>
+    <t>资讯板块指数信息</t>
+  </si>
+  <si>
+    <t>/v4/xpic/zx.htm</t>
+  </si>
+  <si>
+    <t>根据品种id获取指数信息</t>
+  </si>
+  <si>
+    <t>/v4/xpic/breed.htm?breedId=02</t>
+  </si>
+  <si>
+    <t>查询定制品种</t>
+  </si>
+  <si>
+    <t>/v4/breed/sub/query.htm?userId=16</t>
+  </si>
+  <si>
+    <t>品种界面价格选择</t>
+  </si>
+  <si>
+    <t>/v4/breed/marketSelect.htm?breedId=02</t>
+  </si>
+  <si>
+    <t>分页查询会议</t>
+  </si>
+  <si>
+    <t>/v4/meeting/list.htm?page=1&amp;size=15</t>
+  </si>
+  <si>
+    <t>获取废钢行情频道</t>
+  </si>
+  <si>
+    <t>/v4/market/fgMarket.htm?userId=16</t>
+  </si>
+  <si>
+    <t>根据tableId获取优质商户</t>
+  </si>
+  <si>
+    <t>/v4/market/getDealersByTid.htm?tableId=15278&amp;userId=299696&amp;machineCode=41DC79E03121BBAD5EF97AD3177E895E</t>
+  </si>
+  <si>
+    <t>获取缴费记录</t>
+  </si>
+  <si>
+    <t>/v4/finance/payInpour/list.htm?userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0&amp;page=&amp;size=</t>
+  </si>
+  <si>
+    <t>获取IOS品种价格列表</t>
+  </si>
+  <si>
+    <t>/v4/finance/ios/breed/all.htm?userId=733321&amp;machineCode=B05B8726-29CB-4E14-BC88-AC17AB038A0D&amp;protocolVersion=4.7.9</t>
+  </si>
+  <si>
+    <t>获取iOS支付类型</t>
+  </si>
+  <si>
+    <t>/v4/finance/ios/getPrice.htm?userId=733321&amp;businessTypeId=050602,050603,050604&amp;month=12</t>
+  </si>
+  <si>
+    <t>获取积分规则</t>
+  </si>
+  <si>
+    <t>/v4/user/score/rule.htm?userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>获取抵用券规则</t>
+  </si>
+  <si>
+    <t>/v4/user/coupon/rule.htm?userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>个人中心的消息红点提示</t>
+  </si>
+  <si>
+    <t>/v4/user/info/getMyNotice.htm?userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>获取意见反馈</t>
+  </si>
+  <si>
+    <t>/v4/message/feed/list.htm?userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>获取意见反馈选项</t>
+  </si>
+  <si>
+    <t>/v4/message/feed/option/list.htm?userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0&amp;objectType=1</t>
+  </si>
+  <si>
+    <t>根据ID查询黄页</t>
+  </si>
+  <si>
+    <t>/v4/yellow/detail.htm?id=178553&amp;userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>查询黄页的品种</t>
+  </si>
+  <si>
+    <t>/v4/gq/breed/list.htm?userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>/v4/index.htm?userId=&amp;machineCode=</t>
+  </si>
+  <si>
+    <t>版本更新</t>
+  </si>
+  <si>
+    <t>/v4/version.htm?clientType=1&amp;clientVersion=4.9.0&amp;device=1&amp;isPad=&amp;machineCode=980569354954f05e16edb99971b262d0&amp;marketType=MySteel&amp;userId=1042955&amp;versionCode=105</t>
+  </si>
+  <si>
+    <t>首页热门文章</t>
+  </si>
+  <si>
+    <t>/v4/getIndexHotArticle.htm?userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>添加分享</t>
+  </si>
+  <si>
+    <t>/v4/shareData/create.htm?channelId=586&amp;channelName=上海市场建筑钢材价格行情&amp;isPad=&amp;machineCode=980569354954f05e16edb99971b262d0&amp;objectId=2470491&amp;objectName=上海市场建筑钢材价格行情&amp;shareChannel=3&amp;shortCompanyName=&amp;type=2&amp;uniqueMark=18d5c6ca4c6141df954d&amp;userId=1042955</t>
+  </si>
+  <si>
+    <t>获取省份</t>
+  </si>
+  <si>
+    <t>/v4/gq/getProvinces.htm?machineCode=980569354954f05e16edb99971b262d0&amp;userId=1042955&amp;isNeedLog=1&amp;channelId=</t>
+  </si>
+  <si>
+    <t>供求明细</t>
+  </si>
+  <si>
+    <t>/v4/gq/detail.htm?machineCode=980569354954f05e16edb99971b262d0&amp;userId=1042955&amp;id=93761&amp;protocolVersion=4.8.0</t>
+  </si>
+  <si>
+    <t>获取供求主页</t>
+  </si>
+  <si>
+    <t>/v4/gq/mainPage.htm?machineCode=980569354954f05e16edb99971b262d0&amp;userId=1042955&amp;gqCreateId=763056&amp;memberId=3024665&amp;page=1&amp;protocolVersion=4.8.0&amp;source=0</t>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>/v4/gq/fresh.htm?machineCode=980569354954f05e16edb99971b262d0&amp;userId=1042955&amp;id=93761</t>
+  </si>
+  <si>
+    <t>单品种中查询供求列表</t>
+  </si>
+  <si>
+    <t>/v4/gq/queryByChannelId.htm?machineCode=980569354954f05e16edb99971b262d0&amp;userId=1042955&amp;breedId=&amp;breedName=供求&amp;channelId=07&amp;city=&amp;isPad=&amp;page=1&amp;protocolVersion=4.4.1&amp;province=&amp;search=&amp;supplyType=3</t>
+  </si>
+  <si>
+    <t>单品种中获取供求品种</t>
+  </si>
+  <si>
+    <t>/v4/gq/breed/listByChannelId.htm?machineCode=980569354954f05e16edb99971b262d0&amp;userId=1042955&amp;channelId=07&amp;isPad=</t>
+  </si>
+  <si>
+    <t>分页获取首页热门文章</t>
+  </si>
+  <si>
+    <t>/v4/getHotArticleToFourPO.htm?userId=299696&amp;page=1&amp;size=15&amp;protocolVersion=4.4.0</t>
+  </si>
+  <si>
+    <t>分页查询主题及回复</t>
+  </si>
+  <si>
+    <t>/v4/comment/reply/my.htm?userId=16&amp;page=1&amp;size=15&amp;protocolVersion=4.4.0</t>
+  </si>
+  <si>
+    <t>分页查询兑换信息</t>
+  </si>
+  <si>
+    <t>/v4/shop/query/exchange.htm?userId=1042955&amp;page=1&amp;size=15&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>查询抽奖时积分使用情况</t>
+  </si>
+  <si>
+    <t>/v4/shop/query/lotteryHistory.htm?userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0&amp;page=1&amp;size=15</t>
+  </si>
+  <si>
+    <t>查询兑换详细信息</t>
+  </si>
+  <si>
+    <t>/v4/shop/detail/exchange.htm?userId=299696&amp;id=1</t>
+  </si>
+  <si>
+    <t>获取soso会员的基本信息</t>
+  </si>
+  <si>
+    <t>/v4/yellow/member/detail.htm?memberId=928555&amp;userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>/v4/breed/introduce/query.htm?userId=16&amp;protocolVersion=4.5.0</t>
+  </si>
+  <si>
+    <t>查询已定制品种</t>
+  </si>
+  <si>
+    <t>/v4/breed/subed/query.htm?userId=16&amp;protocolVersion=4.5.0</t>
+  </si>
+  <si>
+    <t>查询未定制品种</t>
+  </si>
+  <si>
+    <t>/v4/breed/unsub/query.htm?userId=1042955&amp;protocolVersion=4.9.0&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>白名单</t>
+  </si>
+  <si>
+    <t>/v4/getWhiteList.htm</t>
+  </si>
+  <si>
+    <t>获取首页底部模块的图片和链接</t>
+  </si>
+  <si>
+    <t>/v4/getIndexBottomIco.htm</t>
+  </si>
+  <si>
+    <t>最新短信</t>
+  </si>
+  <si>
+    <t>/v4/sms/newestSms.htm?userId=&amp;page=1&amp;size=10</t>
+  </si>
+  <si>
+    <t>获取定制短信</t>
+  </si>
+  <si>
+    <t>/v4/sms/mysubpack.htm?userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>关掉一周榜单请求协议</t>
+  </si>
+  <si>
+    <t>/v4/closeBillBoard.htm?userId=299696</t>
+  </si>
+  <si>
+    <t>获取弹窗内容</t>
+  </si>
+  <si>
+    <t>/v4/getPopUp.htm?type=3</t>
+  </si>
+  <si>
+    <t>获取首页交易数据</t>
+  </si>
+  <si>
+    <t>/v4/getVolume.htm</t>
+  </si>
+  <si>
+    <t>获取首页指数信息</t>
+  </si>
+  <si>
+    <t>/v4/xpic/getIndexXpic.htm</t>
+  </si>
+  <si>
+    <t>根据id查询供求列表</t>
+  </si>
+  <si>
+    <t>/v4/gq/breed/listByChannelId.htm?userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0&amp;channelId=07&amp;isPad=</t>
+  </si>
+  <si>
+    <t>/v4/gq/queryByChannelId.htm?breedId=1514&amp;breedName=绵白糖&amp;channelId=07&amp;city=保山&amp;isPad=&amp;machineCode=980569354954f05e16edb99971b262d0&amp;page=1&amp;protocolVersion=4.4.1&amp;province=云南&amp;search=玉米&amp;supplyType=3&amp;userId=1042955</t>
+  </si>
+  <si>
+    <t>获取废钢价格表单列表</t>
+  </si>
+  <si>
+    <t>/v4/market/fgTable.htm?</t>
+  </si>
+  <si>
+    <t>ios根据品种财务类型代码获取品种信息</t>
+  </si>
+  <si>
+    <t>/v4/finance/ios/breed/byBusId.htm?userId=733321&amp;businessTypeId=0506&amp;breedId=&amp;machineCode=B05B8726-29CB-4E14-BC88-AC17AB038A0D&amp;protocolVersion=4.7.9</t>
+  </si>
+  <si>
+    <t>根据订单号查询订单信息</t>
+  </si>
+  <si>
+    <t>/v4/finance/pay/queryOrderByOutTradeNO.htm?outTradeNO=18565504777158382234014753</t>
+  </si>
+  <si>
+    <t>获取供求品种的单位</t>
+  </si>
+  <si>
+    <t>/v4/gq/breedUnit.htm</t>
+  </si>
+  <si>
+    <t>获取煤化工的提示语</t>
+  </si>
+  <si>
+    <t>/v4/getMhgTips.htm</t>
+  </si>
+  <si>
+    <t>获取往期悬赏问答详细内容</t>
+  </si>
+  <si>
+    <t>https://m.mysteel.com/activity</t>
+  </si>
+  <si>
+    <t>/v4/v4/articleStand/getContent.ms?userId=1042955&amp;articleId=1243493</t>
+  </si>
+  <si>
+    <t>获取本期悬赏问答详细内容</t>
+  </si>
+  <si>
+    <t>/v4/v4/articleStand/getCurrent.ms?userId=1042955&amp;articleId=1243493</t>
+  </si>
+  <si>
+    <t>获取获奖名单列表接口</t>
+  </si>
+  <si>
+    <t>/v4/v4/articleStand/winnerList.ms?articleId=1237102</t>
+  </si>
+  <si>
+    <t>提交悬赏问答站队</t>
+  </si>
+  <si>
+    <t>/v4/v4/articleStand/submitStand.ms?id=253&amp;articleId=1237102&amp;userId=1042955</t>
+  </si>
+  <si>
+    <t>分页查询悬赏问答评论</t>
+  </si>
+  <si>
+    <t>/v4/article/reply/getReply.ms?userId=1042955&amp;id=1237102&amp;channelId=1102&amp;page=1&amp;size=15</t>
+  </si>
+  <si>
+    <t>悬赏问答点赞</t>
+  </si>
+  <si>
+    <t>/v4/article/reply/praise.ms?userId=1042955&amp;id=55281</t>
+  </si>
+  <si>
+    <t>检查微信号是否已绑定过手机用户</t>
+  </si>
+  <si>
+    <t>http://mysteelapi.steelphone.com</t>
+  </si>
+  <si>
+    <t>/v4/wxInfo/checkUnionId.htm?unionId=o2p05uLeq-y8uZYN7XUjP26YHWCA&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>检查手机号是否已绑定过微信号</t>
+  </si>
+  <si>
+    <t>/v4/wxInfo/checkNumber.htm?machineCode=980569354954f05e16edb99971b262d0&amp;number=19100000000</t>
+  </si>
+  <si>
+    <t>获取价格表单列表</t>
+  </si>
+  <si>
+    <t>/v4/market/getPriceTableList.htm?breedId=030604&amp;breedName=普碳废钢</t>
+  </si>
+  <si>
+    <t>摇一摇</t>
+  </si>
+  <si>
+    <t>/v4/getAdv.htm?type=1&amp;id=</t>
+  </si>
+  <si>
+    <t>首页查询已定制品种</t>
+  </si>
+  <si>
+    <t>/v4/breed/subed/query.htm?userId=16&amp;protocolVersion=4.8.0&amp;isJump=yes</t>
+  </si>
+  <si>
+    <t>批量添加定制品种</t>
+  </si>
+  <si>
+    <t>/v4/breed/sub/guideSubBreed.htm?userId=16&amp;breedIds=02,07</t>
+  </si>
+  <si>
+    <t>引导页获取品种定制列表</t>
+  </si>
+  <si>
+    <t>/v4/breed/guideList.htm</t>
+  </si>
+  <si>
+    <t>引导页定制品种</t>
+  </si>
+  <si>
+    <t>/v4/subBreedInfo/guideSubBreedInfo.htm?userId=1042955&amp;breedIds=01,08&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>专题列表标签</t>
+  </si>
+  <si>
+    <t>/v4/article/section/listNew.htm?userId=1042955&amp;subjectId=306&amp;protocolVersion=4.9.0&amp;machineCode=980569354954f05e16edb99971b262d0&amp;isPad=</t>
+  </si>
+  <si>
+    <t>专题专栏列表页</t>
+  </si>
+  <si>
+    <t>/v4/article/section/byId.htm?userId=1042955&amp;subjectId=306&amp;protocolVersion=4.9.0&amp;machineCode=980569354954f05e16edb99971b262d0&amp;isPad=&amp;softVersion=4.9.0&amp;sectionId=974&amp;pageNum=1</t>
+  </si>
+  <si>
+    <t>刷新token接口</t>
+  </si>
+  <si>
+    <t>/v4/user/refreshToken.htm?number=19100000000&amp;userId=1042955&amp;frushToken=微信登录_1</t>
+  </si>
+  <si>
+    <t>"message":"success"</t>
+  </si>
+  <si>
+    <t>微信登录_1,</t>
+  </si>
+  <si>
+    <t>/v4/user/updateUserInformation.htm?userId=1042955&amp;loginToken=微信登录_0</t>
+  </si>
+  <si>
+    <t>微信登录_0,</t>
+  </si>
+  <si>
+    <t>待支付订单删除接口</t>
+  </si>
+  <si>
+    <t>/v4/finance/pay/order/delete.htm?outTradeNO=预支付_0&amp;userId=1042955&amp;machineCode=980569354954f05e16edb99971b262d0</t>
+  </si>
+  <si>
+    <t>预支付_0,</t>
+  </si>
+  <si>
+    <t>指数走势图</t>
+  </si>
+  <si>
+    <t>/v4/xpic/breedXpicSides.htm?breedId=02&amp;protocolVersion=4.9.0</t>
+  </si>
+  <si>
+    <t>综合页文章列表</t>
+  </si>
+  <si>
+    <t>{'userId':'','machineCode':'980569354954f05e16edb99971b262d0','id':',,,1','page':'1','type':'4,5,17,6','protocolVersion':'4.9.0'}</t>
+  </si>
+  <si>
+    <t>{'userId':'','machineCode':'980569354954f05e16edb99971b262d0','page':'1','channelId':'060811','protocolVersion':'4.9.0','isPad':''}</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1715,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1336,22 +1735,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1366,23 +1750,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1396,29 +1764,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1426,9 +1771,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1444,16 +1812,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1471,11 +1863,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1488,7 +1887,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,61 +1953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,49 +1971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,7 +1989,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,37 +2019,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,71 +2084,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1779,153 +2115,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1936,8 +2335,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1946,59 +2345,59 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2265,26 +2664,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="B225" workbookViewId="0">
+      <selection activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="27.9732142857143" customWidth="1"/>
+    <col min="1" max="1" width="27.975" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="33.4732142857143" customWidth="1"/>
-    <col min="4" max="4" width="36.5982142857143" customWidth="1"/>
-    <col min="5" max="5" width="9.66964285714286" customWidth="1"/>
-    <col min="6" max="6" width="89.2767857142857" customWidth="1"/>
-    <col min="7" max="7" width="5.20535714285714" customWidth="1"/>
-    <col min="8" max="8" width="18.8928571428571" customWidth="1"/>
-    <col min="9" max="9" width="22.3214285714286" customWidth="1"/>
-    <col min="10" max="10" width="19.0446428571429" customWidth="1"/>
+    <col min="3" max="3" width="33.475" customWidth="1"/>
+    <col min="4" max="4" width="36.6" customWidth="1"/>
+    <col min="5" max="5" width="9.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="89.275" customWidth="1"/>
+    <col min="7" max="7" width="5.20833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="22.325" customWidth="1"/>
+    <col min="10" max="10" width="19.0416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2344,7 +2743,7 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2370,7 +2769,7 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2396,7 +2795,7 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2422,12 +2821,12 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
@@ -2448,7 +2847,7 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2474,7 +2873,7 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2500,7 +2899,7 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2526,12 +2925,12 @@
       <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B10" t="s">
@@ -2552,12 +2951,12 @@
       <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B11" t="s">
@@ -2578,7 +2977,7 @@
       <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2604,7 +3003,7 @@
       <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2630,7 +3029,7 @@
       <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2656,7 +3055,7 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2682,7 +3081,7 @@
       <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2708,7 +3107,7 @@
       <c r="G16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2734,7 +3133,7 @@
       <c r="G17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2760,7 +3159,7 @@
       <c r="G18" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2786,7 +3185,7 @@
       <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2812,7 +3211,7 @@
       <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2838,7 +3237,7 @@
       <c r="G21" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2864,7 +3263,7 @@
       <c r="G22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2890,7 +3289,7 @@
       <c r="G23" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2916,7 +3315,7 @@
       <c r="G24" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2942,7 +3341,7 @@
       <c r="G25" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2968,7 +3367,7 @@
       <c r="G26" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2994,7 +3393,7 @@
       <c r="G27" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3020,7 +3419,7 @@
       <c r="G28" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3046,7 +3445,7 @@
       <c r="G29" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3072,7 +3471,7 @@
       <c r="G30" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3098,7 +3497,7 @@
       <c r="G31" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3124,7 +3523,7 @@
       <c r="G32" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3150,7 +3549,7 @@
       <c r="G33" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3176,7 +3575,7 @@
       <c r="G34" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3202,7 +3601,7 @@
       <c r="G35" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3228,7 +3627,7 @@
       <c r="G36" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3254,7 +3653,7 @@
       <c r="G37" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3280,7 +3679,7 @@
       <c r="G38" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3306,7 +3705,7 @@
       <c r="G39" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3332,7 +3731,7 @@
       <c r="G40" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3358,7 +3757,7 @@
       <c r="G41" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3384,7 +3783,7 @@
       <c r="G42" t="s">
         <v>123</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3410,7 +3809,7 @@
       <c r="G43" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3436,7 +3835,7 @@
       <c r="G44" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3462,7 +3861,7 @@
       <c r="G45" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3488,7 +3887,7 @@
       <c r="G46" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3514,7 +3913,7 @@
       <c r="G47" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3540,7 +3939,7 @@
       <c r="G48" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3566,7 +3965,7 @@
       <c r="G49" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3592,7 +3991,7 @@
       <c r="G50" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3618,7 +4017,7 @@
       <c r="G51" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3644,7 +4043,7 @@
       <c r="G52" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3670,7 +4069,7 @@
       <c r="G53" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3696,7 +4095,7 @@
       <c r="G54" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3722,7 +4121,7 @@
       <c r="G55" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3748,7 +4147,7 @@
       <c r="G56" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3774,7 +4173,7 @@
       <c r="G57" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3800,7 +4199,7 @@
       <c r="G58" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3826,7 +4225,7 @@
       <c r="G59" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3852,7 +4251,7 @@
       <c r="G60" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3878,7 +4277,7 @@
       <c r="G61" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3904,7 +4303,7 @@
       <c r="G62" t="s">
         <v>17</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3930,7 +4329,7 @@
       <c r="G63" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I63" t="s">
@@ -3938,7 +4337,7 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B64" t="s">
@@ -3959,7 +4358,7 @@
       <c r="G64" t="s">
         <v>17</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3985,7 +4384,7 @@
       <c r="G65" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4011,7 +4410,7 @@
       <c r="G66" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4037,7 +4436,7 @@
       <c r="G67" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4063,7 +4462,7 @@
       <c r="G68" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4089,7 +4488,7 @@
       <c r="G69" t="s">
         <v>17</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4115,7 +4514,7 @@
       <c r="G70" t="s">
         <v>17</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4141,7 +4540,7 @@
       <c r="G71" t="s">
         <v>17</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4167,7 +4566,7 @@
       <c r="G72" t="s">
         <v>17</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4193,7 +4592,7 @@
       <c r="G73" t="s">
         <v>17</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4219,7 +4618,7 @@
       <c r="G74" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4245,7 +4644,7 @@
       <c r="G75" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4271,7 +4670,7 @@
       <c r="G76" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4297,7 +4696,7 @@
       <c r="G77" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4323,7 +4722,7 @@
       <c r="G78" t="s">
         <v>17</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I78" t="s">
@@ -4352,7 +4751,7 @@
       <c r="G79" t="s">
         <v>17</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J79" t="s">
@@ -4381,7 +4780,7 @@
       <c r="G80" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J80" t="s">
@@ -4410,7 +4809,7 @@
       <c r="G81" t="s">
         <v>17</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4436,7 +4835,7 @@
       <c r="G82" t="s">
         <v>17</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I82" t="s">
@@ -4465,7 +4864,7 @@
       <c r="G83" t="s">
         <v>17</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J83" t="s">
@@ -4494,7 +4893,7 @@
       <c r="G84" t="s">
         <v>17</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J84" t="s">
@@ -4523,7 +4922,7 @@
       <c r="G85" t="s">
         <v>17</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4549,7 +4948,7 @@
       <c r="G86" t="s">
         <v>17</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H86" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4575,7 +4974,7 @@
       <c r="G87" t="s">
         <v>17</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H87" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4601,7 +5000,7 @@
       <c r="G88" t="s">
         <v>17</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H88" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4627,7 +5026,7 @@
       <c r="G89" t="s">
         <v>17</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H89" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I89" t="s">
@@ -4656,11 +5055,14 @@
       <c r="G90" t="s">
         <v>17</v>
       </c>
-      <c r="H90" s="5" t="s">
-        <v>18</v>
+      <c r="H90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>251</v>
       </c>
       <c r="J90" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4680,21 +5082,21 @@
         <v>15</v>
       </c>
       <c r="F91" t="s">
+        <v>253</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s">
         <v>252</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J91" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
@@ -4703,7 +5105,7 @@
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E92" t="s">
         <v>15</v>
@@ -4714,13 +5116,13 @@
       <c r="G92" t="s">
         <v>17</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
@@ -4729,7 +5131,7 @@
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E93" t="s">
         <v>15</v>
@@ -4740,13 +5142,13 @@
       <c r="G93" t="s">
         <v>17</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H93" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
@@ -4755,24 +5157,24 @@
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E94" t="s">
         <v>15</v>
       </c>
       <c r="F94" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G94" t="s">
         <v>17</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
@@ -4781,7 +5183,7 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E95" t="s">
         <v>15</v>
@@ -4792,13 +5194,13 @@
       <c r="G95" t="s">
         <v>17</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H95" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
@@ -4807,24 +5209,24 @@
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E96" t="s">
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G96" t="s">
         <v>17</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H96" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
@@ -4833,24 +5235,24 @@
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E97" t="s">
         <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G97" t="s">
         <v>17</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H97" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B98" t="s">
         <v>12</v>
@@ -4859,24 +5261,24 @@
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E98" t="s">
         <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G98" t="s">
         <v>17</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
@@ -4885,24 +5287,24 @@
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E99" t="s">
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G99" t="s">
         <v>17</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H99" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B100" t="s">
         <v>12</v>
@@ -4911,24 +5313,24 @@
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
         <v>15</v>
       </c>
       <c r="F100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G100" t="s">
         <v>17</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H100" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
@@ -4937,24 +5339,24 @@
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E101" t="s">
         <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G101" t="s">
         <v>17</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H101" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
@@ -4963,24 +5365,24 @@
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E102" t="s">
         <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G102" t="s">
         <v>17</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H102" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B103" t="s">
         <v>12</v>
@@ -4989,18 +5391,18 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
         <v>17</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5015,18 +5417,18 @@
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="E104" t="s">
         <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="G104" t="s">
         <v>17</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5052,11 +5454,11 @@
       <c r="G105" t="s">
         <v>17</v>
       </c>
-      <c r="H105" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="H105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>288</v>
       </c>
@@ -5067,79 +5469,79 @@
         <v>13</v>
       </c>
       <c r="D106" t="s">
+        <v>174</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" t="s">
         <v>289</v>
       </c>
-      <c r="E106" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
         <v>290</v>
       </c>
-      <c r="G106" t="s">
-        <v>17</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>291</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" t="s">
+        <v>292</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>293</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>294</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" t="s">
+        <v>295</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="107" customFormat="1" spans="1:8">
-      <c r="A107" t="s">
-        <v>280</v>
-      </c>
-      <c r="B107" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" t="s">
-        <v>281</v>
-      </c>
-      <c r="E107" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" t="s">
-        <v>282</v>
-      </c>
-      <c r="G107" t="s">
-        <v>17</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>291</v>
-      </c>
-      <c r="B108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" t="s">
-        <v>193</v>
-      </c>
-      <c r="E108" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" t="s">
-        <v>292</v>
-      </c>
-      <c r="G108" t="s">
-        <v>17</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+    <row r="109" customFormat="1" spans="1:8">
       <c r="A109" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B109" t="s">
         <v>12</v>
@@ -5148,27 +5550,24 @@
         <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E109" t="s">
         <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G109" t="s">
         <v>17</v>
       </c>
-      <c r="H109" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I109" t="s">
-        <v>179</v>
+      <c r="H109" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>184</v>
+        <v>296</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
@@ -5177,7 +5576,7 @@
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>296</v>
+        <v>193</v>
       </c>
       <c r="E110" t="s">
         <v>15</v>
@@ -5188,11 +5587,11 @@
       <c r="G110" t="s">
         <v>17</v>
       </c>
-      <c r="H110" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="H110" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>298</v>
       </c>
@@ -5214,13 +5613,16 @@
       <c r="G111" t="s">
         <v>17</v>
       </c>
-      <c r="H111" s="5" t="s">
-        <v>18</v>
+      <c r="H111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="B112" t="s">
         <v>12</v>
@@ -5235,18 +5637,18 @@
         <v>15</v>
       </c>
       <c r="F112" t="s">
-        <v>180</v>
+        <v>303</v>
       </c>
       <c r="G112" t="s">
         <v>17</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H112" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B113" t="s">
         <v>12</v>
@@ -5255,24 +5657,24 @@
         <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E113" t="s">
         <v>15</v>
       </c>
       <c r="F113" t="s">
-        <v>180</v>
+        <v>306</v>
       </c>
       <c r="G113" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H113" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B114" t="s">
         <v>12</v>
@@ -5281,7 +5683,7 @@
         <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E114" t="s">
         <v>15</v>
@@ -5292,13 +5694,13 @@
       <c r="G114" t="s">
         <v>17</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H114" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B115" t="s">
         <v>12</v>
@@ -5307,24 +5709,24 @@
         <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E115" t="s">
         <v>15</v>
       </c>
       <c r="F115" t="s">
-        <v>309</v>
+        <v>180</v>
       </c>
       <c r="G115" t="s">
         <v>17</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H115" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B116" t="s">
         <v>12</v>
@@ -5333,24 +5735,24 @@
         <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E116" t="s">
         <v>15</v>
       </c>
       <c r="F116" t="s">
-        <v>309</v>
+        <v>180</v>
       </c>
       <c r="G116" t="s">
         <v>17</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H116" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B117" t="s">
         <v>12</v>
@@ -5359,24 +5761,24 @@
         <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>52</v>
+        <v>314</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G117" t="s">
         <v>17</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H117" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
@@ -5385,24 +5787,24 @@
         <v>13</v>
       </c>
       <c r="D118" t="s">
+        <v>317</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" t="s">
         <v>315</v>
       </c>
-      <c r="E118" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" t="s">
-        <v>316</v>
-      </c>
       <c r="G118" t="s">
         <v>17</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H118" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
@@ -5411,7 +5813,7 @@
         <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>318</v>
+        <v>52</v>
       </c>
       <c r="E119" t="s">
         <v>15</v>
@@ -5422,13 +5824,13 @@
       <c r="G119" t="s">
         <v>17</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H119" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>57</v>
+        <v>320</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
@@ -5437,24 +5839,24 @@
         <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E120" t="s">
         <v>15</v>
       </c>
       <c r="F120" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G120" t="s">
         <v>17</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H120" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -5463,24 +5865,24 @@
         <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E121" t="s">
         <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G121" t="s">
         <v>17</v>
       </c>
-      <c r="H121" s="5" t="s">
+      <c r="H121" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
@@ -5489,24 +5891,24 @@
         <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G122" t="s">
         <v>17</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H122" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -5515,24 +5917,24 @@
         <v>13</v>
       </c>
       <c r="D123" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E123" t="s">
         <v>15</v>
       </c>
       <c r="F123" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G123" t="s">
         <v>17</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H123" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -5541,24 +5943,24 @@
         <v>13</v>
       </c>
       <c r="D124" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
       </c>
       <c r="F124" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G124" t="s">
         <v>17</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H124" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
@@ -5567,24 +5969,24 @@
         <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E125" t="s">
         <v>15</v>
       </c>
       <c r="F125" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G125" t="s">
         <v>17</v>
       </c>
-      <c r="H125" s="5" t="s">
+      <c r="H125" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B126" t="s">
         <v>12</v>
@@ -5593,24 +5995,24 @@
         <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E126" t="s">
         <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G126" t="s">
         <v>17</v>
       </c>
-      <c r="H126" s="5" t="s">
+      <c r="H126" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -5619,24 +6021,24 @@
         <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E127" t="s">
         <v>15</v>
       </c>
       <c r="F127" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G127" t="s">
         <v>17</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="H127" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -5645,24 +6047,24 @@
         <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="E128" t="s">
         <v>15</v>
       </c>
       <c r="F128" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G128" t="s">
         <v>17</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="H128" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -5671,24 +6073,24 @@
         <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E129" t="s">
         <v>15</v>
       </c>
       <c r="F129" t="s">
-        <v>180</v>
+        <v>348</v>
       </c>
       <c r="G129" t="s">
         <v>17</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="H129" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -5697,24 +6099,24 @@
         <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="E130" t="s">
         <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>348</v>
+        <v>180</v>
       </c>
       <c r="G130" t="s">
         <v>17</v>
       </c>
-      <c r="H130" s="5" t="s">
+      <c r="H130" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
@@ -5723,24 +6125,24 @@
         <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="E131" t="s">
         <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G131" t="s">
         <v>17</v>
       </c>
-      <c r="H131" s="5" t="s">
+      <c r="H131" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -5749,24 +6151,24 @@
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>352</v>
+        <v>86</v>
       </c>
       <c r="E132" t="s">
         <v>15</v>
       </c>
       <c r="F132" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G132" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="5" t="s">
+      <c r="H132" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
@@ -5775,24 +6177,24 @@
         <v>13</v>
       </c>
       <c r="D133" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E133" t="s">
         <v>15</v>
       </c>
       <c r="F133" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G133" t="s">
         <v>17</v>
       </c>
-      <c r="H133" s="5" t="s">
+      <c r="H133" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -5801,24 +6203,24 @@
         <v>13</v>
       </c>
       <c r="D134" t="s">
+        <v>359</v>
+      </c>
+      <c r="E134" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" t="s">
         <v>357</v>
       </c>
-      <c r="E134" t="s">
-        <v>15</v>
-      </c>
-      <c r="F134" t="s">
-        <v>180</v>
-      </c>
       <c r="G134" t="s">
         <v>17</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="H134" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
@@ -5827,24 +6229,24 @@
         <v>13</v>
       </c>
       <c r="D135" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E135" t="s">
         <v>15</v>
       </c>
       <c r="F135" t="s">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G135" t="s">
         <v>17</v>
       </c>
-      <c r="H135" s="5" t="s">
+      <c r="H135" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
@@ -5853,24 +6255,24 @@
         <v>13</v>
       </c>
       <c r="D136" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="E136" t="s">
         <v>15</v>
       </c>
       <c r="F136" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G136" t="s">
         <v>17</v>
       </c>
-      <c r="H136" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="H136" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -5879,36 +6281,33 @@
         <v>13</v>
       </c>
       <c r="D137" t="s">
+        <v>333</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>366</v>
+      </c>
+      <c r="G137" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>367</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
         <v>107</v>
-      </c>
-      <c r="E137" t="s">
-        <v>15</v>
-      </c>
-      <c r="F137" t="s">
-        <v>364</v>
-      </c>
-      <c r="G137" t="s">
-        <v>17</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I137" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138" t="s">
-        <v>365</v>
-      </c>
-      <c r="B138" t="s">
-        <v>366</v>
-      </c>
-      <c r="C138" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138" t="s">
-        <v>367</v>
       </c>
       <c r="E138" t="s">
         <v>15</v>
@@ -5919,138 +6318,123 @@
       <c r="G138" t="s">
         <v>17</v>
       </c>
-      <c r="H138" s="5" t="s">
+      <c r="H138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I138" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
         <v>369</v>
       </c>
-      <c r="J138" t="s">
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
         <v>370</v>
       </c>
-      <c r="K138" t="s">
+      <c r="E139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" t="s">
+        <v>180</v>
+      </c>
+      <c r="G139" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139" t="s">
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
         <v>372</v>
       </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" t="s">
-        <v>338</v>
-      </c>
-      <c r="E139" t="s">
-        <v>15</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
         <v>373</v>
       </c>
-      <c r="G139" t="s">
-        <v>17</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J139" t="s">
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="A140" t="s">
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
         <v>375</v>
       </c>
-      <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="E141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" t="s">
         <v>376</v>
       </c>
-      <c r="E140" t="s">
-        <v>15</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
         <v>377</v>
       </c>
-      <c r="G140" t="s">
-        <v>17</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J140" t="s">
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="A141" t="s">
-        <v>340</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" t="s">
-        <v>341</v>
-      </c>
-      <c r="E141" t="s">
-        <v>15</v>
-      </c>
-      <c r="F141" t="s">
-        <v>379</v>
-      </c>
-      <c r="G141" t="s">
-        <v>17</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J141" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142" t="s">
-        <v>380</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" t="s">
-        <v>381</v>
-      </c>
       <c r="E142" t="s">
         <v>15</v>
       </c>
       <c r="F142" t="s">
-        <v>382</v>
+        <v>273</v>
       </c>
       <c r="G142" t="s">
         <v>17</v>
       </c>
-      <c r="H142" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J142" t="s">
-        <v>383</v>
+      <c r="H142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
@@ -6059,24 +6443,24 @@
         <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E143" t="s">
         <v>15</v>
       </c>
       <c r="F143" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="G143" t="s">
         <v>17</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="H143" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
@@ -6085,160 +6469,160 @@
         <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E144" t="s">
         <v>15</v>
       </c>
       <c r="F144" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G144" t="s">
         <v>17</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="H144" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
+        <v>384</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>382</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" t="s">
+        <v>385</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>386</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>387</v>
+      </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" t="s">
+        <v>388</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
         <v>389</v>
       </c>
-      <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>249</v>
+      </c>
+      <c r="E147" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" t="s">
         <v>390</v>
       </c>
-      <c r="E145" t="s">
-        <v>15</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
         <v>391</v>
       </c>
-      <c r="G145" t="s">
-        <v>17</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" t="s">
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>342</v>
+      </c>
+      <c r="E148" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" t="s">
         <v>392</v>
       </c>
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" t="s">
         <v>393</v>
       </c>
-      <c r="E146" t="s">
-        <v>15</v>
-      </c>
-      <c r="F146" t="s">
-        <v>272</v>
-      </c>
-      <c r="G146" t="s">
-        <v>17</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I146" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147" t="s">
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
         <v>394</v>
       </c>
-      <c r="B147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
+        <v>345</v>
+      </c>
+      <c r="E149" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" t="s">
         <v>395</v>
       </c>
-      <c r="E147" t="s">
-        <v>15</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="G149" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J149" t="s">
         <v>396</v>
-      </c>
-      <c r="G147" t="s">
-        <v>17</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J147" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
-        <v>398</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" t="s">
-        <v>13</v>
-      </c>
-      <c r="D148" t="s">
-        <v>399</v>
-      </c>
-      <c r="E148" t="s">
-        <v>15</v>
-      </c>
-      <c r="F148" t="s">
-        <v>259</v>
-      </c>
-      <c r="G148" t="s">
-        <v>17</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" t="s">
-        <v>400</v>
-      </c>
-      <c r="B149" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" t="s">
-        <v>13</v>
-      </c>
-      <c r="D149" t="s">
-        <v>401</v>
-      </c>
-      <c r="E149" t="s">
-        <v>15</v>
-      </c>
-      <c r="F149" t="s">
-        <v>402</v>
-      </c>
-      <c r="G149" t="s">
-        <v>17</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
@@ -6247,108 +6631,102 @@
         <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E150" t="s">
         <v>15</v>
       </c>
       <c r="F150" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G150" t="s">
         <v>17</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="H150" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
+        <v>400</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
+        <v>398</v>
+      </c>
+      <c r="E151" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" t="s">
+        <v>399</v>
+      </c>
+      <c r="G151" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>401</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" t="s">
+        <v>402</v>
+      </c>
+      <c r="E152" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" t="s">
+        <v>403</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>404</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s">
         <v>405</v>
       </c>
-      <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" t="s">
-        <v>390</v>
-      </c>
-      <c r="E151" t="s">
-        <v>15</v>
-      </c>
-      <c r="F151" t="s">
-        <v>406</v>
-      </c>
-      <c r="G151" t="s">
-        <v>17</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" t="s">
-        <v>407</v>
-      </c>
-      <c r="B152" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" t="s">
-        <v>393</v>
-      </c>
-      <c r="E152" t="s">
-        <v>15</v>
-      </c>
-      <c r="F152" t="s">
-        <v>272</v>
-      </c>
-      <c r="G152" t="s">
-        <v>17</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I152" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="A153" t="s">
-        <v>408</v>
-      </c>
-      <c r="B153" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" t="s">
-        <v>13</v>
-      </c>
-      <c r="D153" t="s">
-        <v>395</v>
-      </c>
       <c r="E153" t="s">
         <v>15</v>
       </c>
       <c r="F153" t="s">
-        <v>409</v>
+        <v>12</v>
       </c>
       <c r="G153" t="s">
         <v>17</v>
       </c>
-      <c r="H153" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J153" t="s">
-        <v>410</v>
+      <c r="H153" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B154" t="s">
         <v>12</v>
@@ -6357,24 +6735,24 @@
         <v>13</v>
       </c>
       <c r="D154" t="s">
-        <v>412</v>
+        <v>63</v>
       </c>
       <c r="E154" t="s">
         <v>15</v>
       </c>
       <c r="F154" t="s">
-        <v>413</v>
+        <v>12</v>
       </c>
       <c r="G154" t="s">
         <v>17</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="H154" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B155" t="s">
         <v>12</v>
@@ -6383,24 +6761,24 @@
         <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>249</v>
+        <v>408</v>
       </c>
       <c r="E155" t="s">
         <v>15</v>
       </c>
       <c r="F155" t="s">
-        <v>415</v>
+        <v>12</v>
       </c>
       <c r="G155" t="s">
         <v>17</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="H155" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>71</v>
+        <v>409</v>
       </c>
       <c r="B156" t="s">
         <v>12</v>
@@ -6409,24 +6787,24 @@
         <v>13</v>
       </c>
       <c r="D156" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E156" t="s">
         <v>15</v>
       </c>
       <c r="F156" t="s">
-        <v>417</v>
+        <v>12</v>
       </c>
       <c r="G156" t="s">
         <v>17</v>
       </c>
-      <c r="H156" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="H156" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B157" t="s">
         <v>12</v>
@@ -6435,27 +6813,24 @@
         <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>338</v>
+        <v>92</v>
       </c>
       <c r="E157" t="s">
         <v>15</v>
       </c>
       <c r="F157" t="s">
-        <v>419</v>
+        <v>12</v>
       </c>
       <c r="G157" t="s">
         <v>17</v>
       </c>
-      <c r="H157" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I157" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="H157" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
@@ -6464,28 +6839,24 @@
         <v>13</v>
       </c>
       <c r="D158" t="s">
-        <v>341</v>
+        <v>413</v>
       </c>
       <c r="E158" t="s">
         <v>15</v>
       </c>
       <c r="F158" t="s">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="G158" t="s">
         <v>17</v>
       </c>
-      <c r="H158" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I158"/>
-      <c r="J158" t="s">
-        <v>423</v>
+      <c r="H158" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B159" t="s">
         <v>12</v>
@@ -6494,24 +6865,24 @@
         <v>13</v>
       </c>
       <c r="D159" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E159" t="s">
         <v>15</v>
       </c>
       <c r="F159" t="s">
-        <v>426</v>
+        <v>12</v>
       </c>
       <c r="G159" t="s">
         <v>17</v>
       </c>
-      <c r="H159" s="5" t="s">
+      <c r="H159" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B160" t="s">
         <v>12</v>
@@ -6520,44 +6891,1925 @@
         <v>13</v>
       </c>
       <c r="D160" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E160" t="s">
         <v>15</v>
       </c>
       <c r="F160" t="s">
-        <v>426</v>
+        <v>12</v>
       </c>
       <c r="G160" t="s">
         <v>17</v>
       </c>
-      <c r="H160" s="5" t="s">
+      <c r="H160" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
+        <v>418</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>419</v>
+      </c>
+      <c r="E161" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>420</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" t="s">
+        <v>421</v>
+      </c>
+      <c r="E162" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>422</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>423</v>
+      </c>
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>424</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" t="s">
+        <v>425</v>
+      </c>
+      <c r="E164" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>426</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" t="s">
+        <v>427</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
         <v>428</v>
       </c>
-      <c r="B161" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" t="s">
-        <v>13</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" t="s">
         <v>429</v>
       </c>
-      <c r="E161" t="s">
-        <v>15</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="E166" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
         <v>430</v>
       </c>
-      <c r="G161" t="s">
-        <v>17</v>
-      </c>
-      <c r="H161" s="5" t="s">
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" t="s">
+        <v>431</v>
+      </c>
+      <c r="E167" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>432</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" t="s">
+        <v>433</v>
+      </c>
+      <c r="E168" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>434</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" t="s">
+        <v>435</v>
+      </c>
+      <c r="E169" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>436</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" t="s">
+        <v>437</v>
+      </c>
+      <c r="E170" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>438</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" t="s">
+        <v>439</v>
+      </c>
+      <c r="E171" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>440</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" t="s">
+        <v>441</v>
+      </c>
+      <c r="E172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>17</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>442</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>443</v>
+      </c>
+      <c r="E173" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>444</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>445</v>
+      </c>
+      <c r="E174" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>446</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" t="s">
+        <v>447</v>
+      </c>
+      <c r="E175" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>448</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" t="s">
+        <v>449</v>
+      </c>
+      <c r="E176" t="s">
+        <v>15</v>
+      </c>
+      <c r="F176" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>450</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" t="s">
+        <v>451</v>
+      </c>
+      <c r="E177" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>452</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" t="s">
+        <v>453</v>
+      </c>
+      <c r="E178" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>454</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" t="s">
+        <v>455</v>
+      </c>
+      <c r="E179" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>17</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>456</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" t="s">
+        <v>457</v>
+      </c>
+      <c r="E180" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>17</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>458</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" t="s">
+        <v>459</v>
+      </c>
+      <c r="E181" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" t="s">
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>460</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" t="s">
+        <v>461</v>
+      </c>
+      <c r="E182" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>17</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
+        <v>462</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" t="s">
+        <v>463</v>
+      </c>
+      <c r="E183" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>464</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" t="s">
+        <v>465</v>
+      </c>
+      <c r="E184" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>17</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>466</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" t="s">
+        <v>467</v>
+      </c>
+      <c r="E185" t="s">
+        <v>15</v>
+      </c>
+      <c r="F185" t="s">
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>17</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>468</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" t="s">
+        <v>469</v>
+      </c>
+      <c r="E186" t="s">
+        <v>15</v>
+      </c>
+      <c r="F186" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>17</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>470</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" t="s">
+        <v>471</v>
+      </c>
+      <c r="E187" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>17</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>472</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" t="s">
+        <v>473</v>
+      </c>
+      <c r="E188" t="s">
+        <v>15</v>
+      </c>
+      <c r="F188" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>17</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>474</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" t="s">
+        <v>475</v>
+      </c>
+      <c r="E189" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>17</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>476</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" t="s">
+        <v>477</v>
+      </c>
+      <c r="E190" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>17</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>478</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" t="s">
+        <v>479</v>
+      </c>
+      <c r="E191" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>17</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>480</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" t="s">
+        <v>481</v>
+      </c>
+      <c r="E192" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>17</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>420</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" t="s">
+        <v>482</v>
+      </c>
+      <c r="E193" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>17</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>483</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" t="s">
+        <v>484</v>
+      </c>
+      <c r="E194" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>485</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" t="s">
+        <v>486</v>
+      </c>
+      <c r="E195" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>17</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>487</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" t="s">
+        <v>488</v>
+      </c>
+      <c r="E196" t="s">
+        <v>15</v>
+      </c>
+      <c r="F196" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>17</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>489</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>490</v>
+      </c>
+      <c r="E197" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>17</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>491</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" t="s">
+        <v>492</v>
+      </c>
+      <c r="E198" t="s">
+        <v>15</v>
+      </c>
+      <c r="F198" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>17</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>493</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" t="s">
+        <v>494</v>
+      </c>
+      <c r="E199" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>17</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>495</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" t="s">
+        <v>496</v>
+      </c>
+      <c r="E200" t="s">
+        <v>15</v>
+      </c>
+      <c r="F200" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>17</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>497</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" t="s">
+        <v>498</v>
+      </c>
+      <c r="E201" t="s">
+        <v>15</v>
+      </c>
+      <c r="F201" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>17</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>499</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" t="s">
+        <v>500</v>
+      </c>
+      <c r="E202" t="s">
+        <v>15</v>
+      </c>
+      <c r="F202" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>17</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>501</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" t="s">
+        <v>502</v>
+      </c>
+      <c r="E203" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>17</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>503</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" t="s">
+        <v>504</v>
+      </c>
+      <c r="E204" t="s">
+        <v>15</v>
+      </c>
+      <c r="F204" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>17</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>466</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" t="s">
+        <v>505</v>
+      </c>
+      <c r="E205" t="s">
+        <v>15</v>
+      </c>
+      <c r="F205" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>17</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>506</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>507</v>
+      </c>
+      <c r="E206" t="s">
+        <v>15</v>
+      </c>
+      <c r="F206" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>17</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>508</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" t="s">
+        <v>509</v>
+      </c>
+      <c r="E207" t="s">
+        <v>15</v>
+      </c>
+      <c r="F207" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>17</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>510</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" t="s">
+        <v>511</v>
+      </c>
+      <c r="E208" t="s">
+        <v>15</v>
+      </c>
+      <c r="F208" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" t="s">
+        <v>17</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>512</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" t="s">
+        <v>513</v>
+      </c>
+      <c r="E209" t="s">
+        <v>15</v>
+      </c>
+      <c r="F209" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" t="s">
+        <v>17</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" t="s">
+        <v>515</v>
+      </c>
+      <c r="E210" t="s">
+        <v>15</v>
+      </c>
+      <c r="F210" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" t="s">
+        <v>17</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>516</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>517</v>
+      </c>
+      <c r="D211" t="s">
+        <v>518</v>
+      </c>
+      <c r="E211" t="s">
+        <v>15</v>
+      </c>
+      <c r="F211" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>17</v>
+      </c>
+      <c r="H211" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>519</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>517</v>
+      </c>
+      <c r="D212" t="s">
+        <v>520</v>
+      </c>
+      <c r="E212" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" t="s">
+        <v>17</v>
+      </c>
+      <c r="H212" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>521</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>517</v>
+      </c>
+      <c r="D213" t="s">
+        <v>522</v>
+      </c>
+      <c r="E213" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" t="s">
+        <v>17</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>523</v>
+      </c>
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" t="s">
+        <v>517</v>
+      </c>
+      <c r="D214" t="s">
+        <v>524</v>
+      </c>
+      <c r="E214" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" t="s">
+        <v>17</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>525</v>
+      </c>
+      <c r="B215" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" t="s">
+        <v>517</v>
+      </c>
+      <c r="D215" t="s">
+        <v>526</v>
+      </c>
+      <c r="E215" t="s">
+        <v>15</v>
+      </c>
+      <c r="F215" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>17</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>527</v>
+      </c>
+      <c r="B216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" t="s">
+        <v>517</v>
+      </c>
+      <c r="D216" t="s">
+        <v>528</v>
+      </c>
+      <c r="E216" t="s">
+        <v>15</v>
+      </c>
+      <c r="F216" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" t="s">
+        <v>17</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>529</v>
+      </c>
+      <c r="B217" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" t="s">
+        <v>530</v>
+      </c>
+      <c r="D217" t="s">
+        <v>531</v>
+      </c>
+      <c r="E217" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" t="s">
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>17</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>532</v>
+      </c>
+      <c r="B218" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" t="s">
+        <v>530</v>
+      </c>
+      <c r="D218" t="s">
+        <v>533</v>
+      </c>
+      <c r="E218" t="s">
+        <v>15</v>
+      </c>
+      <c r="F218" t="s">
+        <v>12</v>
+      </c>
+      <c r="G218" t="s">
+        <v>17</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>534</v>
+      </c>
+      <c r="B219" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" t="s">
+        <v>530</v>
+      </c>
+      <c r="D219" t="s">
+        <v>535</v>
+      </c>
+      <c r="E219" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219" t="s">
+        <v>12</v>
+      </c>
+      <c r="G219" t="s">
+        <v>17</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
+        <v>536</v>
+      </c>
+      <c r="B220" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" t="s">
+        <v>530</v>
+      </c>
+      <c r="D220" t="s">
+        <v>58</v>
+      </c>
+      <c r="E220" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" t="s">
+        <v>12</v>
+      </c>
+      <c r="G220" t="s">
+        <v>17</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" t="s">
+        <v>54</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" t="s">
+        <v>530</v>
+      </c>
+      <c r="D221" t="s">
+        <v>537</v>
+      </c>
+      <c r="E221" t="s">
+        <v>15</v>
+      </c>
+      <c r="F221" t="s">
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>17</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" t="s">
+        <v>538</v>
+      </c>
+      <c r="B222" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" t="s">
+        <v>530</v>
+      </c>
+      <c r="D222" t="s">
+        <v>539</v>
+      </c>
+      <c r="E222" t="s">
+        <v>15</v>
+      </c>
+      <c r="F222" t="s">
+        <v>12</v>
+      </c>
+      <c r="G222" t="s">
+        <v>17</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>540</v>
+      </c>
+      <c r="B223" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223" t="s">
+        <v>530</v>
+      </c>
+      <c r="D223" t="s">
+        <v>541</v>
+      </c>
+      <c r="E223" t="s">
+        <v>15</v>
+      </c>
+      <c r="F223" t="s">
+        <v>12</v>
+      </c>
+      <c r="G223" t="s">
+        <v>17</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" t="s">
+        <v>542</v>
+      </c>
+      <c r="B224" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" t="s">
+        <v>530</v>
+      </c>
+      <c r="D224" t="s">
+        <v>543</v>
+      </c>
+      <c r="E224" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" t="s">
+        <v>12</v>
+      </c>
+      <c r="G224" t="s">
+        <v>17</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>544</v>
+      </c>
+      <c r="B225" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225" t="s">
+        <v>545</v>
+      </c>
+      <c r="E225" t="s">
+        <v>15</v>
+      </c>
+      <c r="F225" t="s">
+        <v>12</v>
+      </c>
+      <c r="G225" t="s">
+        <v>17</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>546</v>
+      </c>
+      <c r="B226" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" t="s">
+        <v>547</v>
+      </c>
+      <c r="E226" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226" t="s">
+        <v>17</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" t="s">
+        <v>548</v>
+      </c>
+      <c r="B227" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" t="s">
+        <v>549</v>
+      </c>
+      <c r="E227" t="s">
+        <v>15</v>
+      </c>
+      <c r="F227" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" t="s">
+        <v>17</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228" t="s">
+        <v>550</v>
+      </c>
+      <c r="B228" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" t="s">
+        <v>551</v>
+      </c>
+      <c r="E228" t="s">
+        <v>15</v>
+      </c>
+      <c r="F228" t="s">
+        <v>12</v>
+      </c>
+      <c r="G228" t="s">
+        <v>17</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="J228" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" t="s">
+        <v>554</v>
+      </c>
+      <c r="E229" t="s">
+        <v>15</v>
+      </c>
+      <c r="F229" t="s">
+        <v>12</v>
+      </c>
+      <c r="G229" t="s">
+        <v>17</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J229" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230" t="s">
+        <v>556</v>
+      </c>
+      <c r="B230" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" t="s">
+        <v>557</v>
+      </c>
+      <c r="E230" t="s">
+        <v>15</v>
+      </c>
+      <c r="F230" t="s">
+        <v>12</v>
+      </c>
+      <c r="G230" t="s">
+        <v>17</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J230" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>559</v>
+      </c>
+      <c r="B231" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" t="s">
+        <v>560</v>
+      </c>
+      <c r="E231" t="s">
+        <v>15</v>
+      </c>
+      <c r="F231" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" t="s">
+        <v>17</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>561</v>
+      </c>
+      <c r="B232" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" t="s">
+        <v>26</v>
+      </c>
+      <c r="E232" t="s">
+        <v>15</v>
+      </c>
+      <c r="F232" t="s">
+        <v>562</v>
+      </c>
+      <c r="G232" t="s">
+        <v>17</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>42</v>
+      </c>
+      <c r="B233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233" t="s">
+        <v>43</v>
+      </c>
+      <c r="E233" t="s">
+        <v>15</v>
+      </c>
+      <c r="F233" t="s">
+        <v>563</v>
+      </c>
+      <c r="G233" t="s">
+        <v>17</v>
+      </c>
+      <c r="H233" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/test_coding/test_api/api_test_cases/mysteel_api_cases.xlsx
+++ b/test_coding/test_api/api_test_cases/mysteel_api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9360"/>
+    <workbookView windowWidth="21000" windowHeight="8495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="565">
   <si>
     <t>interface_name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>reference_header</t>
+  </si>
+  <si>
+    <t>cookies</t>
   </si>
   <si>
     <t>广告</t>
@@ -1713,8 +1716,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1735,6 +1738,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1750,7 +1760,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1765,30 +1852,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1804,77 +1875,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1884,168 +1887,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2061,13 +1902,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,7 +2088,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2107,26 +2140,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2146,21 +2162,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2172,9 +2173,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2186,10 +2189,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2198,133 +2201,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2666,10 +2669,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K233"/>
+  <dimension ref="A1:L233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B225" workbookViewId="0">
-      <selection activeCell="D235" sqref="D235"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
@@ -2682,11 +2685,12 @@
     <col min="6" max="6" width="89.275" customWidth="1"/>
     <col min="7" max="7" width="5.20833333333333" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="22.325" customWidth="1"/>
+    <col min="9" max="9" width="14.4" customWidth="1"/>
     <col min="10" max="10" width="19.0416666666667" customWidth="1"/>
+    <col min="11" max="11" width="17.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2720,5513 +2724,5516 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
         <v>109</v>
       </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" t="s">
-        <v>108</v>
-      </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
         <v>181</v>
       </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" t="s">
-        <v>182</v>
-      </c>
-      <c r="E65" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" t="s">
-        <v>180</v>
-      </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>223</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>220</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" t="s">
         <v>221</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" t="s">
-        <v>222</v>
-      </c>
-      <c r="E80" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" t="s">
-        <v>219</v>
-      </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J80" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
+        <v>233</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>234</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>235</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" t="s">
         <v>232</v>
-      </c>
-      <c r="B84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" t="s">
-        <v>233</v>
-      </c>
-      <c r="E84" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" t="s">
-        <v>234</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J84" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I90" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
+        <v>254</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" t="s">
         <v>253</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J91" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F102" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F106" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F108" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I108" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:8">
       <c r="A109" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F109" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F111" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I111" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F114" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F115" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F116" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
+        <v>317</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>318</v>
+      </c>
+      <c r="E118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" t="s">
         <v>316</v>
       </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" t="s">
-        <v>317</v>
-      </c>
-      <c r="E118" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" t="s">
-        <v>315</v>
-      </c>
       <c r="G118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F119" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F120" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F121" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F122" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F123" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F124" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E125" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F125" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E126" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F126" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E127" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F127" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F128" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F129" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F130" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F131" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F132" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E133" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F133" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
+        <v>359</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s">
+        <v>360</v>
+      </c>
+      <c r="E134" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" t="s">
         <v>358</v>
       </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" t="s">
-        <v>359</v>
-      </c>
-      <c r="E134" t="s">
-        <v>15</v>
-      </c>
-      <c r="F134" t="s">
-        <v>357</v>
-      </c>
       <c r="G134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E135" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F135" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F136" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F137" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E138" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F138" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I138" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F140" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E141" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F141" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E142" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I142" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F145" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F146" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F147" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I148" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F149" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J149" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E150" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F150" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
+        <v>401</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
+        <v>399</v>
+      </c>
+      <c r="E151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151" t="s">
         <v>400</v>
       </c>
-      <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" t="s">
-        <v>398</v>
-      </c>
-      <c r="E151" t="s">
-        <v>15</v>
-      </c>
-      <c r="F151" t="s">
-        <v>399</v>
-      </c>
       <c r="G151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F152" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E157" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E158" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D161" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E161" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E163" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E165" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E166" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E167" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E169" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E170" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E171" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E172" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E173" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E176" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D177" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E177" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D178" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E178" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D179" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E179" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D180" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E180" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D181" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E181" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E182" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D184" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E184" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D185" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D187" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E187" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E188" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D189" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E189" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D190" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E190" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D191" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E191" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D192" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E192" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D193" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E193" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G193" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D194" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E194" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D195" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E195" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E196" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D197" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E197" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D198" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E199" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D200" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D201" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E201" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D202" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E202" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D203" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E203" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E204" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E205" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D206" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E206" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D207" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E207" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D208" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E208" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D209" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E209" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G209" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D210" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E210" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D211" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E211" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G211" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H211" s="2">
         <v>200</v>
@@ -8234,25 +8241,25 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D212" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E212" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H212" s="2">
         <v>200</v>
@@ -8260,557 +8267,557 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D213" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E213" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D214" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E214" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D215" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D216" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E216" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D217" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E217" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D218" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E218" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F218" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G218" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C219" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D219" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E219" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G219" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D220" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E220" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F220" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G220" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D221" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E221" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G221" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D222" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E222" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F222" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D223" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E223" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F223" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G223" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D224" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E224" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F224" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G224" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D225" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E225" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F225" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G225" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D226" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E226" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F226" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G226" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D227" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E227" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G227" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D228" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E228" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F228" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G228" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J228" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D229" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E229" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F229" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G229" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J229" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B230" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D230" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E230" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F230" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G230" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J230" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D231" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E231" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F231" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G231" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D232" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E232" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F232" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G232" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C233" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D233" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E233" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F233" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G233" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/test_coding/test_api/api_test_cases/mysteel_api_cases.xlsx
+++ b/test_coding/test_api/api_test_cases/mysteel_api_cases.xlsx
@@ -1716,9 +1716,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1753,9 +1753,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1767,22 +1767,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1796,34 +1789,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1837,7 +1814,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1852,13 +1867,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1867,15 +1875,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1890,7 +1890,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,175 +2070,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2081,30 +2081,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2141,7 +2117,42 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2165,19 +2176,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2189,10 +2189,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2201,19 +2201,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2222,112 +2222,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2672,7 +2672,7 @@
   <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
